--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Pdgfd-Pdgfrb.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Pdgfd-Pdgfrb.xlsx
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>22.93030166666667</v>
+        <v>23.36664133333333</v>
       </c>
       <c r="H2">
-        <v>68.790905</v>
+        <v>70.099924</v>
       </c>
       <c r="I2">
-        <v>0.7388742617315771</v>
+        <v>0.7520698922374942</v>
       </c>
       <c r="J2">
-        <v>0.738874261731577</v>
+        <v>0.7520698922374941</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>23.463916</v>
+        <v>8.226724333333333</v>
       </c>
       <c r="N2">
-        <v>70.39174800000001</v>
+        <v>24.680173</v>
       </c>
       <c r="O2">
-        <v>0.1350973942042957</v>
+        <v>0.06198126651953669</v>
       </c>
       <c r="P2">
-        <v>0.1350973942042956</v>
+        <v>0.06198126651953669</v>
       </c>
       <c r="Q2">
-        <v>538.0346721613266</v>
+        <v>192.2309168452058</v>
       </c>
       <c r="R2">
-        <v>4842.31204945194</v>
+        <v>1730.078251606852</v>
       </c>
       <c r="S2">
-        <v>0.09981998740455882</v>
+        <v>0.04661424443209137</v>
       </c>
       <c r="T2">
-        <v>0.09981998740455877</v>
+        <v>0.04661424443209136</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>22.93030166666667</v>
+        <v>23.36664133333333</v>
       </c>
       <c r="H3">
-        <v>68.790905</v>
+        <v>70.099924</v>
       </c>
       <c r="I3">
-        <v>0.7388742617315771</v>
+        <v>0.7520698922374942</v>
       </c>
       <c r="J3">
-        <v>0.738874261731577</v>
+        <v>0.7520698922374941</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>263.722283</v>
       </c>
       <c r="O3">
-        <v>0.5061416180048238</v>
+        <v>0.6623065855236785</v>
       </c>
       <c r="P3">
-        <v>0.5061416180048237</v>
+        <v>0.6623065855236785</v>
       </c>
       <c r="Q3">
-        <v>2015.743835137346</v>
+        <v>2054.101332822944</v>
       </c>
       <c r="R3">
-        <v>18141.69451623612</v>
+        <v>18486.91199540649</v>
       </c>
       <c r="S3">
-        <v>0.3739750143349401</v>
+        <v>0.4981008424029756</v>
       </c>
       <c r="T3">
-        <v>0.37397501433494</v>
+        <v>0.4981008424029755</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>22.93030166666667</v>
+        <v>23.36664133333333</v>
       </c>
       <c r="H4">
-        <v>68.790905</v>
+        <v>70.099924</v>
       </c>
       <c r="I4">
-        <v>0.7388742617315771</v>
+        <v>0.7520698922374942</v>
       </c>
       <c r="J4">
-        <v>0.738874261731577</v>
+        <v>0.7520698922374941</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>62.24619000000001</v>
+        <v>36.43008433333333</v>
       </c>
       <c r="N4">
-        <v>186.73857</v>
+        <v>109.290253</v>
       </c>
       <c r="O4">
-        <v>0.3583927792848171</v>
+        <v>0.2744692388979848</v>
       </c>
       <c r="P4">
-        <v>0.358392779284817</v>
+        <v>0.2744692388979848</v>
       </c>
       <c r="Q4">
-        <v>1427.32391430065</v>
+        <v>851.2487143600858</v>
       </c>
       <c r="R4">
-        <v>12845.91522870585</v>
+        <v>7661.238429240772</v>
       </c>
       <c r="S4">
-        <v>0.2648072002039973</v>
+        <v>0.2064200509205145</v>
       </c>
       <c r="T4">
-        <v>0.2648072002039972</v>
+        <v>0.2064200509205145</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,46 +723,46 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>22.93030166666667</v>
+        <v>23.36664133333333</v>
       </c>
       <c r="H5">
-        <v>68.790905</v>
+        <v>70.099924</v>
       </c>
       <c r="I5">
-        <v>0.7388742617315771</v>
+        <v>0.7520698922374942</v>
       </c>
       <c r="J5">
-        <v>0.738874261731577</v>
+        <v>0.7520698922374941</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>0.06395099999999999</v>
+        <v>0.1649703333333333</v>
       </c>
       <c r="N5">
-        <v>0.191853</v>
+        <v>0.494911</v>
       </c>
       <c r="O5">
-        <v>0.0003682085060634768</v>
+        <v>0.00124290905879997</v>
       </c>
       <c r="P5">
-        <v>0.0003682085060634768</v>
+        <v>0.00124290905879997</v>
       </c>
       <c r="Q5">
-        <v>1.466415721885</v>
+        <v>3.854802609640445</v>
       </c>
       <c r="R5">
-        <v>13.197741496965</v>
+        <v>34.693223486764</v>
       </c>
       <c r="S5">
-        <v>0.0002720597880809384</v>
+        <v>0.0009347544819126985</v>
       </c>
       <c r="T5">
-        <v>0.0002720597880809383</v>
+        <v>0.0009347544819126983</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>20.093089</v>
       </c>
       <c r="I6">
-        <v>0.2158172842875359</v>
+        <v>0.2155695244255668</v>
       </c>
       <c r="J6">
-        <v>0.2158172842875359</v>
+        <v>0.2155695244255668</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>23.463916</v>
+        <v>8.226724333333333</v>
       </c>
       <c r="N6">
-        <v>70.39174800000001</v>
+        <v>24.680173</v>
       </c>
       <c r="O6">
-        <v>0.1350973942042957</v>
+        <v>0.06198126651953669</v>
       </c>
       <c r="P6">
-        <v>0.1350973942042956</v>
+        <v>0.06198126651953669</v>
       </c>
       <c r="Q6">
-        <v>157.1541841588413</v>
+        <v>55.10010140271078</v>
       </c>
       <c r="R6">
-        <v>1414.387657429572</v>
+        <v>495.900912624397</v>
       </c>
       <c r="S6">
-        <v>0.02915635273149378</v>
+        <v>0.01336127214691083</v>
       </c>
       <c r="T6">
-        <v>0.02915635273149377</v>
+        <v>0.01336127214691083</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>20.093089</v>
       </c>
       <c r="I7">
-        <v>0.2158172842875359</v>
+        <v>0.2155695244255668</v>
       </c>
       <c r="J7">
-        <v>0.2158172842875359</v>
+        <v>0.2155695244255668</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,10 +871,10 @@
         <v>263.722283</v>
       </c>
       <c r="O7">
-        <v>0.5061416180048238</v>
+        <v>0.6623065855236785</v>
       </c>
       <c r="P7">
-        <v>0.5061416180048237</v>
+        <v>0.6623065855236785</v>
       </c>
       <c r="Q7">
         <v>588.7772559557985</v>
@@ -883,10 +883,10 @@
         <v>5298.995303602187</v>
       </c>
       <c r="S7">
-        <v>0.1092341094627005</v>
+        <v>0.1427731156652604</v>
       </c>
       <c r="T7">
-        <v>0.1092341094627004</v>
+        <v>0.1427731156652604</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>20.093089</v>
       </c>
       <c r="I8">
-        <v>0.2158172842875359</v>
+        <v>0.2155695244255668</v>
       </c>
       <c r="J8">
-        <v>0.2158172842875359</v>
+        <v>0.2155695244255668</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>62.24619000000001</v>
+        <v>36.43008433333333</v>
       </c>
       <c r="N8">
-        <v>186.73857</v>
+        <v>109.290253</v>
       </c>
       <c r="O8">
-        <v>0.3583927792848171</v>
+        <v>0.2744692388979848</v>
       </c>
       <c r="P8">
-        <v>0.358392779284817</v>
+        <v>0.2744692388979848</v>
       </c>
       <c r="Q8">
-        <v>416.90607852697</v>
+        <v>243.9976422623908</v>
       </c>
       <c r="R8">
-        <v>3752.15470674273</v>
+        <v>2195.978780361517</v>
       </c>
       <c r="S8">
-        <v>0.07734735633351146</v>
+        <v>0.05916720329868587</v>
       </c>
       <c r="T8">
-        <v>0.07734735633351145</v>
+        <v>0.05916720329868587</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,40 +977,40 @@
         <v>20.093089</v>
       </c>
       <c r="I9">
-        <v>0.2158172842875359</v>
+        <v>0.2155695244255668</v>
       </c>
       <c r="J9">
-        <v>0.2158172842875359</v>
+        <v>0.2155695244255668</v>
       </c>
       <c r="K9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L9">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M9">
-        <v>0.06395099999999999</v>
+        <v>0.1649703333333333</v>
       </c>
       <c r="N9">
-        <v>0.191853</v>
+        <v>0.494911</v>
       </c>
       <c r="O9">
-        <v>0.0003682085060634768</v>
+        <v>0.00124290905879997</v>
       </c>
       <c r="P9">
-        <v>0.0003682085060634768</v>
+        <v>0.00124290905879997</v>
       </c>
       <c r="Q9">
-        <v>0.428324378213</v>
+        <v>1.104921196675444</v>
       </c>
       <c r="R9">
-        <v>3.854919403917</v>
+        <v>9.944290770079</v>
       </c>
       <c r="S9">
-        <v>7.946575983019026E-05</v>
+        <v>0.0002679333147097383</v>
       </c>
       <c r="T9">
-        <v>7.946575983019023E-05</v>
+        <v>0.0002679333147097383</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1027,22 +1027,22 @@
         <v>20</v>
       </c>
       <c r="E10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F10">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G10">
-        <v>1.406107333333334</v>
+        <v>1.005436</v>
       </c>
       <c r="H10">
-        <v>4.218322000000001</v>
+        <v>3.016308</v>
       </c>
       <c r="I10">
-        <v>0.04530845398088702</v>
+        <v>0.03236058333693902</v>
       </c>
       <c r="J10">
-        <v>0.04530845398088701</v>
+        <v>0.03236058333693902</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>23.463916</v>
+        <v>8.226724333333333</v>
       </c>
       <c r="N10">
-        <v>70.39174800000001</v>
+        <v>24.680173</v>
       </c>
       <c r="O10">
-        <v>0.1350973942042957</v>
+        <v>0.06198126651953669</v>
       </c>
       <c r="P10">
-        <v>0.1350973942042956</v>
+        <v>0.06198126651953669</v>
       </c>
       <c r="Q10">
-        <v>32.99278435631734</v>
+        <v>8.271444806809333</v>
       </c>
       <c r="R10">
-        <v>296.9350592068561</v>
+        <v>74.44300326128401</v>
       </c>
       <c r="S10">
-        <v>0.006121054068243083</v>
+        <v>0.002005749940534495</v>
       </c>
       <c r="T10">
-        <v>0.00612105406824308</v>
+        <v>0.002005749940534495</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1089,22 +1089,22 @@
         <v>21</v>
       </c>
       <c r="E11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F11">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G11">
-        <v>1.406107333333334</v>
+        <v>1.005436</v>
       </c>
       <c r="H11">
-        <v>4.218322000000001</v>
+        <v>3.016308</v>
       </c>
       <c r="I11">
-        <v>0.04530845398088702</v>
+        <v>0.03236058333693902</v>
       </c>
       <c r="J11">
-        <v>0.04530845398088701</v>
+        <v>0.03236058333693902</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>263.722283</v>
       </c>
       <c r="O11">
-        <v>0.5061416180048238</v>
+        <v>0.6623065855236785</v>
       </c>
       <c r="P11">
-        <v>0.5061416180048237</v>
+        <v>0.6623065855236785</v>
       </c>
       <c r="Q11">
-        <v>123.6072786965696</v>
+        <v>88.38529244346266</v>
       </c>
       <c r="R11">
-        <v>1112.465508269126</v>
+        <v>795.467631991164</v>
       </c>
       <c r="S11">
-        <v>0.02293249420718325</v>
+        <v>0.02143262745544253</v>
       </c>
       <c r="T11">
-        <v>0.02293249420718325</v>
+        <v>0.02143262745544253</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1151,22 +1151,22 @@
         <v>22</v>
       </c>
       <c r="E12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F12">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G12">
-        <v>1.406107333333334</v>
+        <v>1.005436</v>
       </c>
       <c r="H12">
-        <v>4.218322000000001</v>
+        <v>3.016308</v>
       </c>
       <c r="I12">
-        <v>0.04530845398088702</v>
+        <v>0.03236058333693902</v>
       </c>
       <c r="J12">
-        <v>0.04530845398088701</v>
+        <v>0.03236058333693902</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>62.24619000000001</v>
+        <v>36.43008433333333</v>
       </c>
       <c r="N12">
-        <v>186.73857</v>
+        <v>109.290253</v>
       </c>
       <c r="O12">
-        <v>0.3583927792848171</v>
+        <v>0.2744692388979848</v>
       </c>
       <c r="P12">
-        <v>0.358392779284817</v>
+        <v>0.2744692388979848</v>
       </c>
       <c r="Q12">
-        <v>87.52482423106002</v>
+        <v>36.62811827176933</v>
       </c>
       <c r="R12">
-        <v>787.7234180795401</v>
+        <v>329.653064445924</v>
       </c>
       <c r="S12">
-        <v>0.01623822274730833</v>
+        <v>0.008881984678784462</v>
       </c>
       <c r="T12">
-        <v>0.01623822274730833</v>
+        <v>0.008881984678784462</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1213,52 +1213,52 @@
         <v>25</v>
       </c>
       <c r="E13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F13">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G13">
-        <v>1.406107333333334</v>
+        <v>1.005436</v>
       </c>
       <c r="H13">
-        <v>4.218322000000001</v>
+        <v>3.016308</v>
       </c>
       <c r="I13">
-        <v>0.04530845398088702</v>
+        <v>0.03236058333693902</v>
       </c>
       <c r="J13">
-        <v>0.04530845398088701</v>
+        <v>0.03236058333693902</v>
       </c>
       <c r="K13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L13">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M13">
-        <v>0.06395099999999999</v>
+        <v>0.1649703333333333</v>
       </c>
       <c r="N13">
-        <v>0.191853</v>
+        <v>0.494911</v>
       </c>
       <c r="O13">
-        <v>0.0003682085060634768</v>
+        <v>0.00124290905879997</v>
       </c>
       <c r="P13">
-        <v>0.0003682085060634768</v>
+        <v>0.00124290905879997</v>
       </c>
       <c r="Q13">
-        <v>0.089921970074</v>
+        <v>0.1658671120653333</v>
       </c>
       <c r="R13">
-        <v>0.8092977306660001</v>
+        <v>1.492804008588</v>
       </c>
       <c r="S13">
-        <v>1.66829581523482E-05</v>
+        <v>4.022126217753285E-05</v>
       </c>
       <c r="T13">
-        <v>1.668295815234819E-05</v>
+        <v>4.022126217753285E-05</v>
       </c>
     </row>
   </sheetData>
